--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU005-001 - Keuangan - Setup Mapping Bank Pembayaran Hapus Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU005-001 - Keuangan - Setup Mapping Bank Pembayaran Hapus Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\Setup_Keuangan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK_Merge\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2CFF5B-8926-4FBA-88FC-D7684B1DFDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD03EF9F-8ECC-4B8F-AC7D-15A61C46053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>RUN</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Setup Mapping Bank Pembayaran</t>
   </si>
   <si>
-    <t>BIAYA_RTGS</t>
-  </si>
-  <si>
     <t>Ubah Setup Mapping Bank Pembayaran</t>
   </si>
   <si>
@@ -86,12 +83,18 @@
   </si>
   <si>
     <t>DPLKKEU005-001</t>
+  </si>
+  <si>
+    <t>KODE_BI_PENERIMA</t>
+  </si>
+  <si>
+    <t>016</t>
   </si>
   <si>
     <t>Username : 30711;
 Password : bni1234;
 Role : 09 - Penyelia Settlement; 
-Biaya RTGS : 6500;</t>
+Kode BI Penerima : 016</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,7 @@
     <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -549,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.25">
@@ -557,19 +560,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3">
         <v>30711</v>
@@ -589,8 +592,8 @@
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="7">
-        <v>6500</v>
+      <c r="M2" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
